--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapri\Documents\Informatique\Dev\Epitech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapri\Documents\Informatique\Dev\Epitech\Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A4F570-DD88-4E14-B833-8CD41B1E3166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6168D210-C445-4F4E-955B-1AD0A9C0304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E33D8C8-8536-4B9C-B87A-A1A4369286BE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -462,8 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,19 +809,19 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
     <col min="4" max="4" width="76" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -836,7 +835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
         <v>17</v>
@@ -848,7 +847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -862,14 +861,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="D5" s="5"/>
       <c r="F5" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -883,7 +882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
         <v>8</v>
@@ -895,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -904,7 +903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -913,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="9" t="s">
         <v>12</v>
@@ -922,8 +921,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
@@ -931,96 +930,78 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="25" t="s">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="26" t="s">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="26" t="s">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="26" t="s">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="26" t="s">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="26" t="s">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="25" t="s">
         <v>27</v>
       </c>
     </row>
